--- a/WebPage/Common/RptTemplet/0513Report.xlsx
+++ b/WebPage/Common/RptTemplet/0513Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A748FD-684F-4AD3-A68F-9C5670FA0807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A07D00-1429-4EDE-8EE9-A755B61B96DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,35 +191,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,78 +507,78 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
